--- a/data/pca/factorExposure/factorExposure_2014-10-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006351080664780148</v>
+        <v>0.01630495509619303</v>
       </c>
       <c r="C2">
-        <v>0.0953849616876043</v>
+        <v>0.07014127662608308</v>
       </c>
       <c r="D2">
-        <v>0.01743239986717995</v>
+        <v>-0.02729309077084952</v>
       </c>
       <c r="E2">
-        <v>-0.19883641437942</v>
+        <v>0.05083147701434931</v>
       </c>
       <c r="F2">
-        <v>-0.1517426641887915</v>
+        <v>0.158571613195437</v>
       </c>
       <c r="G2">
-        <v>0.05505382519147791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0145126527108867</v>
+      </c>
+      <c r="H2">
+        <v>-0.05342099231203117</v>
+      </c>
+      <c r="I2">
+        <v>-0.0006195180113627311</v>
+      </c>
+      <c r="J2">
+        <v>0.1813150957637003</v>
+      </c>
+      <c r="K2">
+        <v>0.05910200035493669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.0299305942696278</v>
+        <v>0.02125534697161437</v>
       </c>
       <c r="C4">
-        <v>0.170841807514816</v>
+        <v>0.1481817983096148</v>
       </c>
       <c r="D4">
-        <v>-0.01894289472735816</v>
+        <v>-0.06301515800937853</v>
       </c>
       <c r="E4">
-        <v>-0.1307789725457207</v>
+        <v>-0.03629379044402269</v>
       </c>
       <c r="F4">
-        <v>0.03077827308223786</v>
+        <v>0.08363649107442392</v>
       </c>
       <c r="G4">
-        <v>0.03987121585607996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.001782191945889402</v>
+      </c>
+      <c r="H4">
+        <v>-0.102992166138387</v>
+      </c>
+      <c r="I4">
+        <v>-0.009176777378287397</v>
+      </c>
+      <c r="J4">
+        <v>0.1612541790132967</v>
+      </c>
+      <c r="K4">
+        <v>-0.0899746782041831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02993689457490812</v>
+        <v>0.03986279529149741</v>
       </c>
       <c r="C6">
-        <v>0.0754076607159784</v>
+        <v>0.08665803844797645</v>
       </c>
       <c r="D6">
-        <v>-0.03958290015608684</v>
+        <v>-0.02564180446937073</v>
       </c>
       <c r="E6">
-        <v>-0.0758210714033654</v>
+        <v>0.0372393945597931</v>
       </c>
       <c r="F6">
-        <v>-0.01123351147702886</v>
+        <v>0.03896455928999232</v>
       </c>
       <c r="G6">
-        <v>-0.0178614641326598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0460657161208444</v>
+      </c>
+      <c r="H6">
+        <v>-0.027402224484327</v>
+      </c>
+      <c r="I6">
+        <v>0.07764247240255323</v>
+      </c>
+      <c r="J6">
+        <v>0.06142967453967699</v>
+      </c>
+      <c r="K6">
+        <v>0.03938393977987123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.006587637158285103</v>
+        <v>0.01360163758168581</v>
       </c>
       <c r="C7">
-        <v>0.05285233074659199</v>
+        <v>0.06856277308592679</v>
       </c>
       <c r="D7">
-        <v>-0.01632116228188206</v>
+        <v>-0.02233790416064793</v>
       </c>
       <c r="E7">
-        <v>-0.05529474811957885</v>
+        <v>-0.02049075696880249</v>
       </c>
       <c r="F7">
-        <v>0.02993846120816088</v>
+        <v>0.006334123569265944</v>
       </c>
       <c r="G7">
-        <v>0.01294038842573463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.049431633323246</v>
+      </c>
+      <c r="H7">
+        <v>-0.1026013302663708</v>
+      </c>
+      <c r="I7">
+        <v>0.006713739331388239</v>
+      </c>
+      <c r="J7">
+        <v>0.03573070699213074</v>
+      </c>
+      <c r="K7">
+        <v>-0.008366621084386239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.004985672384975523</v>
+        <v>-0.0006970432309910033</v>
       </c>
       <c r="C8">
-        <v>0.06748604208278183</v>
+        <v>0.06439092958583367</v>
       </c>
       <c r="D8">
-        <v>-0.01693496354362177</v>
+        <v>-0.04202108438449279</v>
       </c>
       <c r="E8">
-        <v>-0.09661058666131882</v>
+        <v>0.000586328638285034</v>
       </c>
       <c r="F8">
-        <v>-0.01053550034674118</v>
+        <v>0.06520324689944253</v>
       </c>
       <c r="G8">
-        <v>0.04295162680928372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01631054851104632</v>
+      </c>
+      <c r="H8">
+        <v>-0.05645479357142377</v>
+      </c>
+      <c r="I8">
+        <v>0.001145464388421378</v>
+      </c>
+      <c r="J8">
+        <v>0.002155264706573466</v>
+      </c>
+      <c r="K8">
+        <v>0.008011179296916275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01626036571355246</v>
+        <v>0.01407650170415254</v>
       </c>
       <c r="C9">
-        <v>0.1379468890480279</v>
+        <v>0.1119161073984478</v>
       </c>
       <c r="D9">
-        <v>-0.02985960292785827</v>
+        <v>-0.04396989717443908</v>
       </c>
       <c r="E9">
-        <v>-0.06561882672756224</v>
+        <v>-0.007936721814779999</v>
       </c>
       <c r="F9">
-        <v>0.01773928448959549</v>
+        <v>0.03463442101493586</v>
       </c>
       <c r="G9">
-        <v>-0.016066109886136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001495591567534255</v>
+      </c>
+      <c r="H9">
+        <v>-0.09377354386358577</v>
+      </c>
+      <c r="I9">
+        <v>0.01996273068829331</v>
+      </c>
+      <c r="J9">
+        <v>0.07595833365814587</v>
+      </c>
+      <c r="K9">
+        <v>-0.05978133900371745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2699065028063518</v>
+        <v>0.2491458086948068</v>
       </c>
       <c r="C10">
-        <v>-0.1033000957729688</v>
+        <v>-0.09853227779121342</v>
       </c>
       <c r="D10">
-        <v>0.02500811996318769</v>
+        <v>0.005444954018430611</v>
       </c>
       <c r="E10">
-        <v>0.02486832314267401</v>
+        <v>0.01089765973526726</v>
       </c>
       <c r="F10">
-        <v>0.02504509383660701</v>
+        <v>-0.002022405176645388</v>
       </c>
       <c r="G10">
-        <v>-0.01109756992753869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02462386450508109</v>
+      </c>
+      <c r="H10">
+        <v>-0.04427088264430854</v>
+      </c>
+      <c r="I10">
+        <v>-0.1730298230505749</v>
+      </c>
+      <c r="J10">
+        <v>-0.08324251371949958</v>
+      </c>
+      <c r="K10">
+        <v>-0.05543322281099515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01153184333066956</v>
+        <v>0.01601001231025052</v>
       </c>
       <c r="C11">
-        <v>0.06609563079386029</v>
+        <v>0.08174482817653297</v>
       </c>
       <c r="D11">
-        <v>-0.01964861801048006</v>
+        <v>-0.03466829861045405</v>
       </c>
       <c r="E11">
-        <v>-0.01005979209210578</v>
+        <v>-0.009676337833927221</v>
       </c>
       <c r="F11">
-        <v>0.0459220271903528</v>
+        <v>-0.007759113128058937</v>
       </c>
       <c r="G11">
-        <v>-0.03010333387668289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01654274117904284</v>
+      </c>
+      <c r="H11">
+        <v>-0.03562961008062039</v>
+      </c>
+      <c r="I11">
+        <v>0.01743074647735737</v>
+      </c>
+      <c r="J11">
+        <v>-0.02437271674655272</v>
+      </c>
+      <c r="K11">
+        <v>-0.03197961560085175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.009359861490382867</v>
+        <v>0.01615842785515965</v>
       </c>
       <c r="C12">
-        <v>0.05754037820625903</v>
+        <v>0.06015325641558364</v>
       </c>
       <c r="D12">
-        <v>-0.02498344140128548</v>
+        <v>-0.020789477631186</v>
       </c>
       <c r="E12">
-        <v>-0.006346197728579559</v>
+        <v>0.01764288386517077</v>
       </c>
       <c r="F12">
-        <v>0.01947466395711459</v>
+        <v>-0.008767941071909504</v>
       </c>
       <c r="G12">
-        <v>-0.06513246023037765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02897583516215857</v>
+      </c>
+      <c r="H12">
+        <v>-0.03377537575990067</v>
+      </c>
+      <c r="I12">
+        <v>0.01239428950983552</v>
+      </c>
+      <c r="J12">
+        <v>-0.01087192700854465</v>
+      </c>
+      <c r="K12">
+        <v>-0.03224695232425902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0258682092433138</v>
+        <v>0.007000654608105873</v>
       </c>
       <c r="C13">
-        <v>0.1110708439450022</v>
+        <v>0.1151369107725802</v>
       </c>
       <c r="D13">
-        <v>-0.03657910279521385</v>
+        <v>-0.0375361504795741</v>
       </c>
       <c r="E13">
-        <v>-0.09506991312023369</v>
+        <v>0.1107150533241818</v>
       </c>
       <c r="F13">
-        <v>0.04613083925162823</v>
+        <v>0.1225437345851584</v>
       </c>
       <c r="G13">
-        <v>-0.1580066892042449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1174136594085281</v>
+      </c>
+      <c r="H13">
+        <v>-0.1332737500214722</v>
+      </c>
+      <c r="I13">
+        <v>-0.1970204447431629</v>
+      </c>
+      <c r="J13">
+        <v>-0.1912722908604997</v>
+      </c>
+      <c r="K13">
+        <v>0.1466320138353898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01068453620802366</v>
+        <v>0.01809862853538633</v>
       </c>
       <c r="C14">
-        <v>0.06313991515631333</v>
+        <v>0.07373115668258083</v>
       </c>
       <c r="D14">
-        <v>-0.02016025470921514</v>
+        <v>-0.04701873849357877</v>
       </c>
       <c r="E14">
-        <v>-0.05273091551033871</v>
+        <v>0.04262083657986422</v>
       </c>
       <c r="F14">
-        <v>-4.501001835661028e-06</v>
+        <v>0.01018206743015375</v>
       </c>
       <c r="G14">
-        <v>-0.05865710946701268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0824798138967196</v>
+      </c>
+      <c r="H14">
+        <v>-0.2056100532178197</v>
+      </c>
+      <c r="I14">
+        <v>0.03514969290942826</v>
+      </c>
+      <c r="J14">
+        <v>-0.1112236014288599</v>
+      </c>
+      <c r="K14">
+        <v>0.1092751491521498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.007919349860180756</v>
+        <v>0.00161916010553273</v>
       </c>
       <c r="C15">
-        <v>0.08963782741267136</v>
+        <v>0.07769130236316889</v>
       </c>
       <c r="D15">
-        <v>-0.02143585455942662</v>
+        <v>-0.03246163777344147</v>
       </c>
       <c r="E15">
-        <v>-0.09515992121706329</v>
+        <v>-0.005798130499430062</v>
       </c>
       <c r="F15">
-        <v>0.0168445071637228</v>
+        <v>0.03028653208662061</v>
       </c>
       <c r="G15">
-        <v>-0.02371060422483696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04380244134848887</v>
+      </c>
+      <c r="H15">
+        <v>-0.08734322304965068</v>
+      </c>
+      <c r="I15">
+        <v>0.02854674890952051</v>
+      </c>
+      <c r="J15">
+        <v>-0.05340363015454077</v>
+      </c>
+      <c r="K15">
+        <v>-0.007550903645003045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.0135084515943961</v>
+        <v>0.01559499581190262</v>
       </c>
       <c r="C16">
-        <v>0.0606314506731268</v>
+        <v>0.06381338385415071</v>
       </c>
       <c r="D16">
-        <v>-0.01175394467787354</v>
+        <v>-0.02461931918453392</v>
       </c>
       <c r="E16">
-        <v>-0.005316936397501413</v>
+        <v>-0.003213877507180909</v>
       </c>
       <c r="F16">
-        <v>0.02264590779781422</v>
+        <v>-0.004848894497660799</v>
       </c>
       <c r="G16">
-        <v>-0.02912399478081394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01204899179504368</v>
+      </c>
+      <c r="H16">
+        <v>-0.02833788376421418</v>
+      </c>
+      <c r="I16">
+        <v>0.01541086070391414</v>
+      </c>
+      <c r="J16">
+        <v>-0.00709446092618945</v>
+      </c>
+      <c r="K16">
+        <v>-0.02314504780154678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01276683723801951</v>
+        <v>0.01325164190614452</v>
       </c>
       <c r="C20">
-        <v>0.08865173307401961</v>
+        <v>0.08613707963186784</v>
       </c>
       <c r="D20">
-        <v>-0.008677919736999164</v>
+        <v>-0.02368629493188272</v>
       </c>
       <c r="E20">
-        <v>-0.04394118868709915</v>
+        <v>-0.02831060633620879</v>
       </c>
       <c r="F20">
-        <v>0.07378682508786222</v>
+        <v>-0.0002375189860568165</v>
       </c>
       <c r="G20">
-        <v>-0.05934300413127683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04665368561604077</v>
+      </c>
+      <c r="H20">
+        <v>-0.07309018484704248</v>
+      </c>
+      <c r="I20">
+        <v>0.01957591691260878</v>
+      </c>
+      <c r="J20">
+        <v>0.01563883244630982</v>
+      </c>
+      <c r="K20">
+        <v>-0.02429220708034918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.00210721383925083</v>
+        <v>0.01363855627720156</v>
       </c>
       <c r="C21">
-        <v>0.09079478974989665</v>
+        <v>0.07641680821645649</v>
       </c>
       <c r="D21">
-        <v>0.03256951981911162</v>
+        <v>-0.02307399626913988</v>
       </c>
       <c r="E21">
-        <v>-0.04729535139177611</v>
+        <v>0.08158619514708912</v>
       </c>
       <c r="F21">
-        <v>-0.03957238686493966</v>
+        <v>0.02351723531780796</v>
       </c>
       <c r="G21">
-        <v>-0.04600050345257123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01427694026540148</v>
+      </c>
+      <c r="H21">
+        <v>-0.1466619078796517</v>
+      </c>
+      <c r="I21">
+        <v>-0.03145530228747105</v>
+      </c>
+      <c r="J21">
+        <v>-0.04664237056930939</v>
+      </c>
+      <c r="K21">
+        <v>0.01560801106732646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04848183809936175</v>
+        <v>0.007049473157928351</v>
       </c>
       <c r="C22">
-        <v>0.1606684606309616</v>
+        <v>0.1653239363011624</v>
       </c>
       <c r="D22">
-        <v>0.1155816373162909</v>
+        <v>-0.01115470435372916</v>
       </c>
       <c r="E22">
-        <v>-0.2795979343487385</v>
+        <v>-0.1094772377943357</v>
       </c>
       <c r="F22">
-        <v>0.006189147613345815</v>
+        <v>0.5110284173413011</v>
       </c>
       <c r="G22">
-        <v>0.2469936585991745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.05803887726253957</v>
+      </c>
+      <c r="H22">
+        <v>0.3066615372663107</v>
+      </c>
+      <c r="I22">
+        <v>-0.0365335782335164</v>
+      </c>
+      <c r="J22">
+        <v>-0.2216024510078219</v>
+      </c>
+      <c r="K22">
+        <v>-0.02632454021922506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0482681990761861</v>
+        <v>0.01188923509776977</v>
       </c>
       <c r="C23">
-        <v>0.161354905716792</v>
+        <v>0.1690874866067385</v>
       </c>
       <c r="D23">
-        <v>0.1152509746808062</v>
+        <v>-0.01012799956100705</v>
       </c>
       <c r="E23">
-        <v>-0.2756793913070246</v>
+        <v>-0.1046282450616797</v>
       </c>
       <c r="F23">
-        <v>0.006473190360907914</v>
+        <v>0.4941533349699745</v>
       </c>
       <c r="G23">
-        <v>0.2455228035753603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.05386687204093359</v>
+      </c>
+      <c r="H23">
+        <v>0.2856184003517045</v>
+      </c>
+      <c r="I23">
+        <v>-0.02910451102772811</v>
+      </c>
+      <c r="J23">
+        <v>-0.2090005486977191</v>
+      </c>
+      <c r="K23">
+        <v>-0.03335953497372095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.007190699552287458</v>
+        <v>0.01626549750636514</v>
       </c>
       <c r="C24">
-        <v>0.06875332410808566</v>
+        <v>0.07071038941958349</v>
       </c>
       <c r="D24">
-        <v>-0.03447273038325399</v>
+        <v>-0.03771383687323646</v>
       </c>
       <c r="E24">
-        <v>-0.0132003023870247</v>
+        <v>-0.006870637796803286</v>
       </c>
       <c r="F24">
-        <v>0.03452136908494505</v>
+        <v>-0.007191669957151222</v>
       </c>
       <c r="G24">
-        <v>-0.04570273149588888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02728159895744349</v>
+      </c>
+      <c r="H24">
+        <v>-0.04507262235919475</v>
+      </c>
+      <c r="I24">
+        <v>0.01723864914788499</v>
+      </c>
+      <c r="J24">
+        <v>-0.01546209329668826</v>
+      </c>
+      <c r="K24">
+        <v>-0.03369837172059374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01116070852272157</v>
+        <v>0.0208650161660809</v>
       </c>
       <c r="C25">
-        <v>0.06408995637222575</v>
+        <v>0.06990099287259803</v>
       </c>
       <c r="D25">
-        <v>-0.01034770865962326</v>
+        <v>-0.02606477608344446</v>
       </c>
       <c r="E25">
-        <v>-0.004624259784653389</v>
+        <v>-0.008933711592622705</v>
       </c>
       <c r="F25">
-        <v>0.04257175328314021</v>
+        <v>-0.004337114115072983</v>
       </c>
       <c r="G25">
-        <v>-0.04217970679131869</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02298377145531667</v>
+      </c>
+      <c r="H25">
+        <v>-0.03893540376947917</v>
+      </c>
+      <c r="I25">
+        <v>0.003926136120096848</v>
+      </c>
+      <c r="J25">
+        <v>-0.02697333630413777</v>
+      </c>
+      <c r="K25">
+        <v>-0.02534997016275047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.006813301407514915</v>
+        <v>0.02402247051554933</v>
       </c>
       <c r="C26">
-        <v>0.06022704477140448</v>
+        <v>0.06184295922962436</v>
       </c>
       <c r="D26">
-        <v>-0.05150890351789858</v>
+        <v>-0.06236667295662403</v>
       </c>
       <c r="E26">
-        <v>-0.02984744011918294</v>
+        <v>0.0001903858792560195</v>
       </c>
       <c r="F26">
-        <v>-0.000144015605242901</v>
+        <v>-0.01446977727729597</v>
       </c>
       <c r="G26">
-        <v>-0.0348901596203341</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.006881374091112832</v>
+      </c>
+      <c r="H26">
+        <v>-0.1063721394638407</v>
+      </c>
+      <c r="I26">
+        <v>0.0447763531796762</v>
+      </c>
+      <c r="J26">
+        <v>0.09412680225830969</v>
+      </c>
+      <c r="K26">
+        <v>-0.09084704493536967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3722573723094413</v>
+        <v>0.320072863297744</v>
       </c>
       <c r="C28">
-        <v>-0.114248794726373</v>
+        <v>-0.1094939326319288</v>
       </c>
       <c r="D28">
-        <v>0.02575056111824265</v>
+        <v>0.03130493278220442</v>
       </c>
       <c r="E28">
-        <v>0.1228127801234103</v>
+        <v>0.009359513210407311</v>
       </c>
       <c r="F28">
-        <v>-0.02318718664922583</v>
+        <v>0.0331004957278724</v>
       </c>
       <c r="G28">
-        <v>-0.0118934779297495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1213704657854417</v>
+      </c>
+      <c r="H28">
+        <v>-0.07001019973976737</v>
+      </c>
+      <c r="I28">
+        <v>-0.2206300017817762</v>
+      </c>
+      <c r="J28">
+        <v>0.009594389489451727</v>
+      </c>
+      <c r="K28">
+        <v>-0.01629887381705637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.01396547228413978</v>
+        <v>0.01352054727918852</v>
       </c>
       <c r="C29">
-        <v>0.06490463901527747</v>
+        <v>0.078296018577741</v>
       </c>
       <c r="D29">
-        <v>-0.03216386492010719</v>
+        <v>-0.0517615725865866</v>
       </c>
       <c r="E29">
-        <v>-0.07395211341155887</v>
+        <v>0.04910900181624997</v>
       </c>
       <c r="F29">
-        <v>0.02431683647719795</v>
+        <v>0.02420139253609917</v>
       </c>
       <c r="G29">
-        <v>-0.09073523120032714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1302124629207081</v>
+      </c>
+      <c r="H29">
+        <v>-0.2893329155222903</v>
+      </c>
+      <c r="I29">
+        <v>0.03507169032370042</v>
+      </c>
+      <c r="J29">
+        <v>-0.1642665504909829</v>
+      </c>
+      <c r="K29">
+        <v>0.202078866169917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.0366385048785031</v>
+        <v>0.02907957865336538</v>
       </c>
       <c r="C30">
-        <v>0.1779737689477279</v>
+        <v>0.147427124338816</v>
       </c>
       <c r="D30">
-        <v>-0.04432969167373434</v>
+        <v>-0.05548279009319474</v>
       </c>
       <c r="E30">
-        <v>-0.06949555099878657</v>
+        <v>-0.0170580902188749</v>
       </c>
       <c r="F30">
-        <v>0.02250728534660906</v>
+        <v>0.06485894117085292</v>
       </c>
       <c r="G30">
-        <v>0.02741262377510499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.001848063409639038</v>
+      </c>
+      <c r="H30">
+        <v>-0.0279517342514288</v>
+      </c>
+      <c r="I30">
+        <v>0.04472285125362601</v>
+      </c>
+      <c r="J30">
+        <v>0.08872318342074217</v>
+      </c>
+      <c r="K30">
+        <v>-0.02674952230071865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003690200328303682</v>
+        <v>0.01160226328089773</v>
       </c>
       <c r="C31">
-        <v>0.08822363679914046</v>
+        <v>0.09182891814912929</v>
       </c>
       <c r="D31">
-        <v>-0.04592656985097961</v>
+        <v>-0.04393899760203072</v>
       </c>
       <c r="E31">
-        <v>0.03708904201608581</v>
+        <v>0.00489722704195702</v>
       </c>
       <c r="F31">
-        <v>-0.01433979140347851</v>
+        <v>-0.01606045667976216</v>
       </c>
       <c r="G31">
-        <v>-0.007003667233000888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04748313019764353</v>
+      </c>
+      <c r="H31">
+        <v>-0.03064244197552119</v>
+      </c>
+      <c r="I31">
+        <v>0.006423504111019525</v>
+      </c>
+      <c r="J31">
+        <v>-0.03550044201102346</v>
+      </c>
+      <c r="K31">
+        <v>-0.02089089273239359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0285404593727433</v>
+        <v>0.0238085725492876</v>
       </c>
       <c r="C32">
-        <v>0.08156759429426705</v>
+        <v>0.05958049665887944</v>
       </c>
       <c r="D32">
-        <v>0.01184633670237155</v>
+        <v>-0.01965954248713861</v>
       </c>
       <c r="E32">
-        <v>-0.1588106547827509</v>
+        <v>0.06181452082647172</v>
       </c>
       <c r="F32">
-        <v>-0.03394416399558075</v>
+        <v>0.1075829936747626</v>
       </c>
       <c r="G32">
-        <v>-0.03397720667748991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05141281902970678</v>
+      </c>
+      <c r="H32">
+        <v>-0.1743181354149252</v>
+      </c>
+      <c r="I32">
+        <v>-0.2321274420506526</v>
+      </c>
+      <c r="J32">
+        <v>0.008201860400412112</v>
+      </c>
+      <c r="K32">
+        <v>0.2087247649283296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01574424746564156</v>
+        <v>0.01626036892580511</v>
       </c>
       <c r="C33">
-        <v>0.08524179882901607</v>
+        <v>0.1048061111552379</v>
       </c>
       <c r="D33">
-        <v>-0.0445087678125264</v>
+        <v>-0.04341787152807038</v>
       </c>
       <c r="E33">
-        <v>-0.03824505928997212</v>
+        <v>-0.01029536203454006</v>
       </c>
       <c r="F33">
-        <v>0.0130127583674517</v>
+        <v>0.01937779454814218</v>
       </c>
       <c r="G33">
-        <v>-0.03518991778178242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03366180152928443</v>
+      </c>
+      <c r="H33">
+        <v>-0.05885634588236773</v>
+      </c>
+      <c r="I33">
+        <v>-0.01294582105640596</v>
+      </c>
+      <c r="J33">
+        <v>-0.005913794339358075</v>
+      </c>
+      <c r="K33">
+        <v>-0.0198285111599732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.004583559872209209</v>
+        <v>0.01636151370521628</v>
       </c>
       <c r="C34">
-        <v>0.05075296250861831</v>
+        <v>0.05152066270564186</v>
       </c>
       <c r="D34">
-        <v>-0.01828302185982127</v>
+        <v>-0.01973851391337274</v>
       </c>
       <c r="E34">
-        <v>-0.01320009366860072</v>
+        <v>0.00193246964200366</v>
       </c>
       <c r="F34">
-        <v>0.01054356456392616</v>
+        <v>-0.006297924954191787</v>
       </c>
       <c r="G34">
-        <v>-0.03362298754770201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01603554531351761</v>
+      </c>
+      <c r="H34">
+        <v>-0.01349606465180693</v>
+      </c>
+      <c r="I34">
+        <v>0.007152417863272431</v>
+      </c>
+      <c r="J34">
+        <v>-0.01428224393447455</v>
+      </c>
+      <c r="K34">
+        <v>-0.03246281245817163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003156615163631026</v>
+        <v>0.008610294978803163</v>
       </c>
       <c r="C35">
-        <v>0.01498322911887208</v>
+        <v>0.040364013651356</v>
       </c>
       <c r="D35">
-        <v>-0.002714855928090733</v>
+        <v>-0.02005751076802085</v>
       </c>
       <c r="E35">
-        <v>-0.01993632866579145</v>
+        <v>0.01158687392148936</v>
       </c>
       <c r="F35">
-        <v>0.01089236034286703</v>
+        <v>0.01049962501550159</v>
       </c>
       <c r="G35">
-        <v>-0.02381625446771868</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04914559848182813</v>
+      </c>
+      <c r="H35">
+        <v>-0.1451163340589106</v>
+      </c>
+      <c r="I35">
+        <v>-0.001284522581319247</v>
+      </c>
+      <c r="J35">
+        <v>-0.138544824391125</v>
+      </c>
+      <c r="K35">
+        <v>0.090494137973894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.008276010514109301</v>
+        <v>0.01547120051668308</v>
       </c>
       <c r="C36">
-        <v>0.05079819195787404</v>
+        <v>0.04749940348622052</v>
       </c>
       <c r="D36">
-        <v>-0.04492292502458434</v>
+        <v>-0.04659848464546373</v>
       </c>
       <c r="E36">
-        <v>-0.02468268681671924</v>
+        <v>0.0001466530378904245</v>
       </c>
       <c r="F36">
-        <v>0.003292406642292758</v>
+        <v>0.004153633158440094</v>
       </c>
       <c r="G36">
-        <v>-0.02065929906814858</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.004165734011182079</v>
+      </c>
+      <c r="H36">
+        <v>-0.07417390931058852</v>
+      </c>
+      <c r="I36">
+        <v>0.01820906471667264</v>
+      </c>
+      <c r="J36">
+        <v>0.03457878213160717</v>
+      </c>
+      <c r="K36">
+        <v>-0.05769053353605798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02850827289888224</v>
+        <v>0.01243628769860636</v>
       </c>
       <c r="C38">
-        <v>0.04226433770255139</v>
+        <v>0.05810015471873055</v>
       </c>
       <c r="D38">
-        <v>-0.02551338209202434</v>
+        <v>-0.03661326951993031</v>
       </c>
       <c r="E38">
-        <v>-0.02677009676532009</v>
+        <v>-0.033782978541918</v>
       </c>
       <c r="F38">
-        <v>0.02607383362873786</v>
+        <v>0.01330836985834658</v>
       </c>
       <c r="G38">
-        <v>-0.013788583465007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01131454009197232</v>
+      </c>
+      <c r="H38">
+        <v>-0.08660735860847353</v>
+      </c>
+      <c r="I38">
+        <v>-0.05070524090609095</v>
+      </c>
+      <c r="J38">
+        <v>-0.03803851299921436</v>
+      </c>
+      <c r="K38">
+        <v>-0.04370563610894709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.006919527091217273</v>
+        <v>0.01680671330792951</v>
       </c>
       <c r="C39">
-        <v>0.131508552414619</v>
+        <v>0.1271413249474491</v>
       </c>
       <c r="D39">
-        <v>-0.02793745175941915</v>
+        <v>-0.05070578835253737</v>
       </c>
       <c r="E39">
-        <v>-0.04799886168254418</v>
+        <v>0.001962667326598876</v>
       </c>
       <c r="F39">
-        <v>0.04370576904644179</v>
+        <v>0.009565143888242774</v>
       </c>
       <c r="G39">
-        <v>-0.05848167959258773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04198658391689229</v>
+      </c>
+      <c r="H39">
+        <v>-0.04968359561695661</v>
+      </c>
+      <c r="I39">
+        <v>0.06862153947521922</v>
+      </c>
+      <c r="J39">
+        <v>0.01340400636891874</v>
+      </c>
+      <c r="K39">
+        <v>-0.03681620254163057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01484678516668335</v>
+        <v>0.01523247112125906</v>
       </c>
       <c r="C40">
-        <v>0.03575584934934514</v>
+        <v>0.0617937715759677</v>
       </c>
       <c r="D40">
-        <v>-0.02785237421688744</v>
+        <v>-0.03661472929202674</v>
       </c>
       <c r="E40">
-        <v>-0.1435891482473951</v>
+        <v>0.02474910023451838</v>
       </c>
       <c r="F40">
-        <v>0.01080526082032284</v>
+        <v>0.06057379498152714</v>
       </c>
       <c r="G40">
-        <v>-0.03351084194904224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1271915731341741</v>
+      </c>
+      <c r="H40">
+        <v>-0.04317229633487975</v>
+      </c>
+      <c r="I40">
+        <v>-0.02340477831942891</v>
+      </c>
+      <c r="J40">
+        <v>-0.2654107802144257</v>
+      </c>
+      <c r="K40">
+        <v>-0.08637197512113401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.008537419073211115</v>
+        <v>0.02053549524429159</v>
       </c>
       <c r="C41">
-        <v>0.01833084917193289</v>
+        <v>0.04720812471493299</v>
       </c>
       <c r="D41">
-        <v>-0.005146872828656152</v>
+        <v>-0.01674510815086087</v>
       </c>
       <c r="E41">
-        <v>0.02626831283814601</v>
+        <v>-0.004530131957119063</v>
       </c>
       <c r="F41">
-        <v>-0.01253378367040261</v>
+        <v>-0.02515810964816368</v>
       </c>
       <c r="G41">
-        <v>0.02430107706936372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00442328100719104</v>
+      </c>
+      <c r="H41">
+        <v>-0.0300404093430467</v>
+      </c>
+      <c r="I41">
+        <v>-0.03383492868044374</v>
+      </c>
+      <c r="J41">
+        <v>-0.05315850412583727</v>
+      </c>
+      <c r="K41">
+        <v>0.001308281105621456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.003391316080777781</v>
+        <v>0.01688461030506955</v>
       </c>
       <c r="C43">
-        <v>0.01720973021229103</v>
+        <v>0.04339679719747837</v>
       </c>
       <c r="D43">
-        <v>-0.009711497360086347</v>
+        <v>-0.02918842461038413</v>
       </c>
       <c r="E43">
-        <v>-0.001907944023733073</v>
+        <v>-0.01584256557625323</v>
       </c>
       <c r="F43">
-        <v>0.01644590140270572</v>
+        <v>-0.008524919753861764</v>
       </c>
       <c r="G43">
-        <v>0.01111168765535054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.002852337433236991</v>
+      </c>
+      <c r="H43">
+        <v>-0.04750175255090278</v>
+      </c>
+      <c r="I43">
+        <v>-0.00520080294838665</v>
+      </c>
+      <c r="J43">
+        <v>-0.0430279150792619</v>
+      </c>
+      <c r="K43">
+        <v>0.006039151427501622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02526185427414856</v>
+        <v>0.01079766094349654</v>
       </c>
       <c r="C44">
-        <v>0.08100393621485984</v>
+        <v>0.08951603335482428</v>
       </c>
       <c r="D44">
-        <v>-0.001488088026095792</v>
+        <v>-0.0504925768600995</v>
       </c>
       <c r="E44">
-        <v>-0.08965219443821568</v>
+        <v>-0.02675267936890552</v>
       </c>
       <c r="F44">
-        <v>0.0468070678810723</v>
+        <v>0.07188622499414406</v>
       </c>
       <c r="G44">
-        <v>-0.002400051409885588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0481821777478486</v>
+      </c>
+      <c r="H44">
+        <v>-0.0509505685127352</v>
+      </c>
+      <c r="I44">
+        <v>0.05289911265898736</v>
+      </c>
+      <c r="J44">
+        <v>0.05879086270393748</v>
+      </c>
+      <c r="K44">
+        <v>0.006735859414098306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.004080257984730869</v>
+        <v>0.002540494533474067</v>
       </c>
       <c r="C46">
-        <v>0.06454168566602268</v>
+        <v>0.06292022930400258</v>
       </c>
       <c r="D46">
-        <v>-0.03392117344112602</v>
+        <v>-0.02849687801480076</v>
       </c>
       <c r="E46">
-        <v>-0.05373044339929069</v>
+        <v>0.008657083283319345</v>
       </c>
       <c r="F46">
-        <v>0.02437878281495294</v>
+        <v>-0.004547812071393298</v>
       </c>
       <c r="G46">
-        <v>-0.04858794686897245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04371411904025923</v>
+      </c>
+      <c r="H46">
+        <v>-0.1055735438351235</v>
+      </c>
+      <c r="I46">
+        <v>0.003913073098380291</v>
+      </c>
+      <c r="J46">
+        <v>-0.07769215489135767</v>
+      </c>
+      <c r="K46">
+        <v>0.04176148601907403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.003576004528792963</v>
+        <v>0.01988519668098512</v>
       </c>
       <c r="C47">
-        <v>0.1086827320410919</v>
+        <v>0.09226582370612696</v>
       </c>
       <c r="D47">
-        <v>-0.0443806927611701</v>
+        <v>-0.04660953815856695</v>
       </c>
       <c r="E47">
-        <v>0.04866246269687712</v>
+        <v>0.01225171939112298</v>
       </c>
       <c r="F47">
-        <v>-0.02734972518208062</v>
+        <v>-0.03245658405169387</v>
       </c>
       <c r="G47">
-        <v>-0.04795047648768284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01054400831708155</v>
+      </c>
+      <c r="H47">
+        <v>-0.06649364482583332</v>
+      </c>
+      <c r="I47">
+        <v>-0.03205245538253601</v>
+      </c>
+      <c r="J47">
+        <v>-0.03396358699643371</v>
+      </c>
+      <c r="K47">
+        <v>-0.01531678949693433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01348936354627363</v>
+        <v>0.02153290786442266</v>
       </c>
       <c r="C48">
-        <v>0.0522509392780444</v>
+        <v>0.05404487406959681</v>
       </c>
       <c r="D48">
-        <v>-0.05839525789553007</v>
+        <v>-0.05531908595183448</v>
       </c>
       <c r="E48">
-        <v>-0.01833305364209256</v>
+        <v>-0.005558251626234479</v>
       </c>
       <c r="F48">
-        <v>0.01145129116626561</v>
+        <v>-0.001704090806124076</v>
       </c>
       <c r="G48">
-        <v>-0.01479574370559441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0001642604366250983</v>
+      </c>
+      <c r="H48">
+        <v>-0.102379044868432</v>
+      </c>
+      <c r="I48">
+        <v>0.03316024643689314</v>
+      </c>
+      <c r="J48">
+        <v>0.08017100069683762</v>
+      </c>
+      <c r="K48">
+        <v>-0.07087215397819745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006237047594687429</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02436346571514723</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001982776489894829</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.006839114222815059</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02913752161370912</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03074292077901157</v>
+      </c>
+      <c r="H49">
+        <v>0.02378866183828909</v>
+      </c>
+      <c r="I49">
+        <v>0.04139353171901896</v>
+      </c>
+      <c r="J49">
+        <v>0.01727907328317009</v>
+      </c>
+      <c r="K49">
+        <v>-0.04754346762166745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0003276239196458661</v>
+        <v>0.01216581024129653</v>
       </c>
       <c r="C50">
-        <v>0.08671916060549546</v>
+        <v>0.08525339839544649</v>
       </c>
       <c r="D50">
-        <v>-0.02899416638338196</v>
+        <v>-0.02940125533411904</v>
       </c>
       <c r="E50">
-        <v>0.003876595229006346</v>
+        <v>-0.001558159284005098</v>
       </c>
       <c r="F50">
-        <v>0.002031497697789781</v>
+        <v>-0.004335626114312484</v>
       </c>
       <c r="G50">
-        <v>0.002751783014451327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02354337087334598</v>
+      </c>
+      <c r="H50">
+        <v>-0.05819185952376166</v>
+      </c>
+      <c r="I50">
+        <v>-0.04207988640514163</v>
+      </c>
+      <c r="J50">
+        <v>-0.02357349413736502</v>
+      </c>
+      <c r="K50">
+        <v>0.0001636750146555657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.006449082740502647</v>
+        <v>-0.005430244565168955</v>
       </c>
       <c r="C51">
-        <v>0.07170194429465385</v>
+        <v>0.03791439273298982</v>
       </c>
       <c r="D51">
-        <v>0.006805978246162371</v>
+        <v>-0.02049392383931698</v>
       </c>
       <c r="E51">
-        <v>-0.09756772204526512</v>
+        <v>0.00749732923616775</v>
       </c>
       <c r="F51">
-        <v>0.02378378420864129</v>
+        <v>0.040866033349725</v>
       </c>
       <c r="G51">
-        <v>0.003831568210435809</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0245632152369144</v>
+      </c>
+      <c r="H51">
+        <v>-0.0955179192911762</v>
+      </c>
+      <c r="I51">
+        <v>0.02144008362998933</v>
+      </c>
+      <c r="J51">
+        <v>0.1102342875397346</v>
+      </c>
+      <c r="K51">
+        <v>-0.01664163447759146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04584011073348009</v>
+        <v>0.05660648691297832</v>
       </c>
       <c r="C53">
-        <v>0.1394640915985792</v>
+        <v>0.1345967833197309</v>
       </c>
       <c r="D53">
-        <v>-0.06298699963724058</v>
+        <v>-0.05425693814481681</v>
       </c>
       <c r="E53">
-        <v>0.1240332066777147</v>
+        <v>0.01142468468774363</v>
       </c>
       <c r="F53">
-        <v>0.007006077131748344</v>
+        <v>-0.07518846535554326</v>
       </c>
       <c r="G53">
-        <v>0.001530201348470832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.07007699171755101</v>
+      </c>
+      <c r="H53">
+        <v>0.0245104352197049</v>
+      </c>
+      <c r="I53">
+        <v>-0.04500547071869061</v>
+      </c>
+      <c r="J53">
+        <v>-0.01684024060565993</v>
+      </c>
+      <c r="K53">
+        <v>-0.05634980079618513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.01282907102325005</v>
+        <v>0.01756579533593493</v>
       </c>
       <c r="C54">
-        <v>0.07242477375919007</v>
+        <v>0.07751468221045917</v>
       </c>
       <c r="D54">
-        <v>-0.007557157601882926</v>
+        <v>-0.01098348360237863</v>
       </c>
       <c r="E54">
-        <v>0.008154007482316154</v>
+        <v>0.004682012976397358</v>
       </c>
       <c r="F54">
-        <v>0.02392220697089784</v>
+        <v>-0.01635835015684944</v>
       </c>
       <c r="G54">
-        <v>-0.021082479758456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01915271199846975</v>
+      </c>
+      <c r="H54">
+        <v>-0.05926410990781578</v>
+      </c>
+      <c r="I54">
+        <v>0.01868311938491509</v>
+      </c>
+      <c r="J54">
+        <v>-0.01333639502184986</v>
+      </c>
+      <c r="K54">
+        <v>0.004002761842510529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02953911283552446</v>
+        <v>0.03208480907841935</v>
       </c>
       <c r="C55">
-        <v>0.09787629216865877</v>
+        <v>0.09056481215008726</v>
       </c>
       <c r="D55">
-        <v>-0.06049273540804963</v>
+        <v>-0.05303279089504859</v>
       </c>
       <c r="E55">
-        <v>0.06120326739799421</v>
+        <v>0.001605180639376207</v>
       </c>
       <c r="F55">
-        <v>-0.008215705885158393</v>
+        <v>-0.05993476572315041</v>
       </c>
       <c r="G55">
-        <v>-0.0278651318163252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03120048729155083</v>
+      </c>
+      <c r="H55">
+        <v>0.01746215673671486</v>
+      </c>
+      <c r="I55">
+        <v>0.009375378400410108</v>
+      </c>
+      <c r="J55">
+        <v>-0.004508648490329263</v>
+      </c>
+      <c r="K55">
+        <v>-0.03645077072637404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.0336203158336003</v>
+        <v>0.04334190071576766</v>
       </c>
       <c r="C56">
-        <v>0.180619788904578</v>
+        <v>0.1604953206181401</v>
       </c>
       <c r="D56">
-        <v>-0.05911164722563657</v>
+        <v>-0.07727475962719874</v>
       </c>
       <c r="E56">
-        <v>0.1552984690183448</v>
+        <v>0.03551008080232537</v>
       </c>
       <c r="F56">
-        <v>-0.04954425712740827</v>
+        <v>-0.107969932577078</v>
       </c>
       <c r="G56">
-        <v>0.02145475754606142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1439716748372649</v>
+      </c>
+      <c r="H56">
+        <v>0.03821376727686405</v>
+      </c>
+      <c r="I56">
+        <v>-0.02833502073785877</v>
+      </c>
+      <c r="J56">
+        <v>0.01861058243115628</v>
+      </c>
+      <c r="K56">
+        <v>-0.04594216647686123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03071142136228521</v>
+        <v>0.01887934662618193</v>
       </c>
       <c r="C58">
-        <v>0.2597920206913018</v>
+        <v>0.1774811986944116</v>
       </c>
       <c r="D58">
-        <v>0.1001324608346885</v>
+        <v>-0.03255337355395099</v>
       </c>
       <c r="E58">
-        <v>-0.2810102520963889</v>
+        <v>-0.05066091844016442</v>
       </c>
       <c r="F58">
-        <v>0.06988012943696723</v>
+        <v>0.3220267068613378</v>
       </c>
       <c r="G58">
-        <v>0.3107179304142585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.09772093496048524</v>
+      </c>
+      <c r="H58">
+        <v>-0.02830616601344683</v>
+      </c>
+      <c r="I58">
+        <v>0.003077153372150349</v>
+      </c>
+      <c r="J58">
+        <v>0.4357651007344445</v>
+      </c>
+      <c r="K58">
+        <v>0.1994277037785513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2805449231775115</v>
+        <v>0.287645189928301</v>
       </c>
       <c r="C59">
-        <v>-0.01945095719264611</v>
+        <v>-0.04500113450098379</v>
       </c>
       <c r="D59">
-        <v>0.04911997181827633</v>
+        <v>0.008723583296591788</v>
       </c>
       <c r="E59">
-        <v>-0.02801508592100528</v>
+        <v>0.02136988633045363</v>
       </c>
       <c r="F59">
-        <v>-0.05014324778551662</v>
+        <v>0.04238136303887104</v>
       </c>
       <c r="G59">
-        <v>-0.03027107033841611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001889650504123266</v>
+      </c>
+      <c r="H59">
+        <v>0.02397606112029749</v>
+      </c>
+      <c r="I59">
+        <v>-0.03308953762491098</v>
+      </c>
+      <c r="J59">
+        <v>-0.02308873924228279</v>
+      </c>
+      <c r="K59">
+        <v>-0.02021270904574796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1305443961585977</v>
+        <v>0.1514326418352894</v>
       </c>
       <c r="C60">
-        <v>0.1420648717301806</v>
+        <v>0.1543431109891572</v>
       </c>
       <c r="D60">
-        <v>-0.05117799168765741</v>
+        <v>-0.0369907943139842</v>
       </c>
       <c r="E60">
-        <v>0.003724836607016543</v>
+        <v>0.04575909589834221</v>
       </c>
       <c r="F60">
-        <v>0.1035487555464885</v>
+        <v>-0.08917069450020361</v>
       </c>
       <c r="G60">
-        <v>-0.3084409615293287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2652483493682247</v>
+      </c>
+      <c r="H60">
+        <v>0.2354296899757424</v>
+      </c>
+      <c r="I60">
+        <v>0.01509695788678815</v>
+      </c>
+      <c r="J60">
+        <v>0.01099937277536483</v>
+      </c>
+      <c r="K60">
+        <v>0.05997950340146987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006420503010098102</v>
+        <v>0.01946119830008218</v>
       </c>
       <c r="C61">
-        <v>0.09253437803051633</v>
+        <v>0.09974455662634112</v>
       </c>
       <c r="D61">
-        <v>-0.04503851546156259</v>
+        <v>-0.0503572804911161</v>
       </c>
       <c r="E61">
-        <v>-0.005145673326451286</v>
+        <v>0.00790106851410478</v>
       </c>
       <c r="F61">
-        <v>0.03093463912076665</v>
+        <v>-0.02657326352070356</v>
       </c>
       <c r="G61">
-        <v>-0.07573254116583827</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03396813744194232</v>
+      </c>
+      <c r="H61">
+        <v>-0.06083013628901558</v>
+      </c>
+      <c r="I61">
+        <v>0.03305490513798412</v>
+      </c>
+      <c r="J61">
+        <v>-0.01963672832182203</v>
+      </c>
+      <c r="K61">
+        <v>-0.03988276281638396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002342506949713044</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.00866947916748478</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001218061453134271</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.008743410879833781</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01473121654670674</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0206194340950537</v>
+      </c>
+      <c r="H62">
+        <v>-0.004917795382767599</v>
+      </c>
+      <c r="I62">
+        <v>0.0002432428811138087</v>
+      </c>
+      <c r="J62">
+        <v>-0.008677714291349748</v>
+      </c>
+      <c r="K62">
+        <v>-0.01708943271661518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.002929483471738988</v>
+        <v>0.02536405205182797</v>
       </c>
       <c r="C63">
-        <v>0.07153298898764321</v>
+        <v>0.07186495025205401</v>
       </c>
       <c r="D63">
-        <v>-0.03204844598712088</v>
+        <v>-0.05824712732582156</v>
       </c>
       <c r="E63">
-        <v>-0.002891095379183885</v>
+        <v>0.005917966724178788</v>
       </c>
       <c r="F63">
-        <v>0.0309594949151533</v>
+        <v>-0.01459262646008772</v>
       </c>
       <c r="G63">
-        <v>-0.03034317851820429</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01117902835318674</v>
+      </c>
+      <c r="H63">
+        <v>-0.06699604424233155</v>
+      </c>
+      <c r="I63">
+        <v>0.01180732991662312</v>
+      </c>
+      <c r="J63">
+        <v>-0.01795255591831852</v>
+      </c>
+      <c r="K63">
+        <v>-0.06348297786062704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.003669768249824742</v>
+        <v>0.01408370759459238</v>
       </c>
       <c r="C64">
-        <v>0.09313502310591475</v>
+        <v>0.09264762433220232</v>
       </c>
       <c r="D64">
-        <v>-0.06818878584658911</v>
+        <v>-0.03390460118190546</v>
       </c>
       <c r="E64">
-        <v>-0.03842498549567766</v>
+        <v>-0.03567468311208841</v>
       </c>
       <c r="F64">
-        <v>0.02735552565842278</v>
+        <v>0.03359548644164683</v>
       </c>
       <c r="G64">
-        <v>-0.03861540084867191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05474853732738891</v>
+      </c>
+      <c r="H64">
+        <v>-0.04209264435684483</v>
+      </c>
+      <c r="I64">
+        <v>0.02633331188968686</v>
+      </c>
+      <c r="J64">
+        <v>-0.02653238146044793</v>
+      </c>
+      <c r="K64">
+        <v>-0.116878221742967</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.0212318762893215</v>
+        <v>0.03170070633367386</v>
       </c>
       <c r="C65">
-        <v>0.07014555925108645</v>
+        <v>0.08915353149790714</v>
       </c>
       <c r="D65">
-        <v>-0.02250626155930672</v>
+        <v>-0.01489324653905467</v>
       </c>
       <c r="E65">
-        <v>-0.06617356893932082</v>
+        <v>-0.03117604697764838</v>
       </c>
       <c r="F65">
-        <v>0.0327372335415228</v>
+        <v>0.01675442504920443</v>
       </c>
       <c r="G65">
-        <v>-0.02896673561629253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1137154842943342</v>
+      </c>
+      <c r="H65">
+        <v>0.006757435778942271</v>
+      </c>
+      <c r="I65">
+        <v>0.07760832087525159</v>
+      </c>
+      <c r="J65">
+        <v>0.08354240232685654</v>
+      </c>
+      <c r="K65">
+        <v>0.01098680383845245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.007987783786912641</v>
+        <v>0.01184534429310258</v>
       </c>
       <c r="C66">
-        <v>0.1626022111737651</v>
+        <v>0.1614765579919575</v>
       </c>
       <c r="D66">
-        <v>-0.006452173943583272</v>
+        <v>-0.0419039455693045</v>
       </c>
       <c r="E66">
-        <v>-0.08978829688855182</v>
+        <v>0.01073915030209557</v>
       </c>
       <c r="F66">
-        <v>0.02737879825894807</v>
+        <v>0.02140571616202136</v>
       </c>
       <c r="G66">
-        <v>-0.07552066932961267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03332433660156649</v>
+      </c>
+      <c r="H66">
+        <v>-0.06274209519985474</v>
+      </c>
+      <c r="I66">
+        <v>0.05412268956749415</v>
+      </c>
+      <c r="J66">
+        <v>0.01312452850166061</v>
+      </c>
+      <c r="K66">
+        <v>-0.04092449873944357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02730389393455565</v>
+        <v>0.02114252925048084</v>
       </c>
       <c r="C67">
-        <v>0.02738108336979294</v>
+        <v>0.05001413599344334</v>
       </c>
       <c r="D67">
-        <v>-0.05068191839167504</v>
+        <v>-0.0395298379913655</v>
       </c>
       <c r="E67">
-        <v>0.01529533352792679</v>
+        <v>-0.02745643979936825</v>
       </c>
       <c r="F67">
-        <v>0.03179118248153075</v>
+        <v>-0.02269613243285469</v>
       </c>
       <c r="G67">
-        <v>-0.03190515687234838</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03334159535159146</v>
+      </c>
+      <c r="H67">
+        <v>-0.06045266824491137</v>
+      </c>
+      <c r="I67">
+        <v>-0.04773649647826176</v>
+      </c>
+      <c r="J67">
+        <v>-0.0526324874258654</v>
+      </c>
+      <c r="K67">
+        <v>-0.01914763265249902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2827498978717146</v>
+        <v>0.2945099662385379</v>
       </c>
       <c r="C68">
-        <v>-0.04553362212150179</v>
+        <v>-0.06351010015931133</v>
       </c>
       <c r="D68">
-        <v>0.03037666212007102</v>
+        <v>0.02436760019776545</v>
       </c>
       <c r="E68">
-        <v>-0.00305806252710935</v>
+        <v>0.008028857301798687</v>
       </c>
       <c r="F68">
-        <v>-0.01973636642105246</v>
+        <v>0.02272396062371392</v>
       </c>
       <c r="G68">
-        <v>0.03111428581592245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03517642171102477</v>
+      </c>
+      <c r="H68">
+        <v>-0.02738281993114704</v>
+      </c>
+      <c r="I68">
+        <v>-0.03327880860135585</v>
+      </c>
+      <c r="J68">
+        <v>0.007735998005765931</v>
+      </c>
+      <c r="K68">
+        <v>-0.0632047346383304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.00850295221849735</v>
+        <v>0.007018003375020484</v>
       </c>
       <c r="C69">
-        <v>0.08359557172162528</v>
+        <v>0.06468956898463596</v>
       </c>
       <c r="D69">
-        <v>-0.05669778962740969</v>
+        <v>-0.0290408878170075</v>
       </c>
       <c r="E69">
-        <v>0.02703661889745056</v>
+        <v>0.004661248306060769</v>
       </c>
       <c r="F69">
-        <v>-0.003245860586684814</v>
+        <v>-0.01610956655075757</v>
       </c>
       <c r="G69">
-        <v>-0.008737793795286958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0109774137300117</v>
+      </c>
+      <c r="H69">
+        <v>-0.04837235419678262</v>
+      </c>
+      <c r="I69">
+        <v>-0.01962759791337488</v>
+      </c>
+      <c r="J69">
+        <v>-0.001049657220095352</v>
+      </c>
+      <c r="K69">
+        <v>-0.01698790230904984</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2831369384172033</v>
+        <v>0.2778498879846309</v>
       </c>
       <c r="C71">
-        <v>-0.06003173035164189</v>
+        <v>-0.0743173814405975</v>
       </c>
       <c r="D71">
-        <v>0.03652530233101826</v>
+        <v>0.02251067566494856</v>
       </c>
       <c r="E71">
-        <v>-0.02226700364342403</v>
+        <v>-0.0243092665844828</v>
       </c>
       <c r="F71">
-        <v>0.01390301251657492</v>
+        <v>0.05477689460137573</v>
       </c>
       <c r="G71">
-        <v>0.02265996249482418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02353530174290934</v>
+      </c>
+      <c r="H71">
+        <v>-0.05504188277063791</v>
+      </c>
+      <c r="I71">
+        <v>-0.1243158553594011</v>
+      </c>
+      <c r="J71">
+        <v>0.0419209112720905</v>
+      </c>
+      <c r="K71">
+        <v>-0.05777257012592604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03968617480716968</v>
+        <v>0.05508113831082151</v>
       </c>
       <c r="C72">
-        <v>0.1539164284569806</v>
+        <v>0.1393804712803452</v>
       </c>
       <c r="D72">
-        <v>-0.05179559817032214</v>
+        <v>-0.04017573054118887</v>
       </c>
       <c r="E72">
-        <v>-0.07468975064222561</v>
+        <v>-0.00274665769887416</v>
       </c>
       <c r="F72">
-        <v>0.1022860404506226</v>
+        <v>-0.02365078044802865</v>
       </c>
       <c r="G72">
-        <v>-0.06897727178003192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04104623073450567</v>
+      </c>
+      <c r="H72">
+        <v>-0.02320696129184029</v>
+      </c>
+      <c r="I72">
+        <v>0.1263806445581771</v>
+      </c>
+      <c r="J72">
+        <v>0.06034010065548984</v>
+      </c>
+      <c r="K72">
+        <v>-0.01393083720009615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.08093640839988213</v>
+        <v>0.1484367131317812</v>
       </c>
       <c r="C73">
-        <v>0.1281438393569468</v>
+        <v>0.1925766770495432</v>
       </c>
       <c r="D73">
-        <v>-0.09781937767792398</v>
+        <v>-0.070599073772008</v>
       </c>
       <c r="E73">
-        <v>0.05460621302437012</v>
+        <v>0.03156419162384151</v>
       </c>
       <c r="F73">
-        <v>0.1695750850744699</v>
+        <v>-0.2077094147543521</v>
       </c>
       <c r="G73">
-        <v>-0.4035435731590296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4032211092286654</v>
+      </c>
+      <c r="H73">
+        <v>0.3062854702046363</v>
+      </c>
+      <c r="I73">
+        <v>-0.08729039808324364</v>
+      </c>
+      <c r="J73">
+        <v>0.07571830011786536</v>
+      </c>
+      <c r="K73">
+        <v>0.07542971131597902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01443509578279978</v>
+        <v>0.03665827943439166</v>
       </c>
       <c r="C74">
-        <v>0.1103088831646464</v>
+        <v>0.108752288696356</v>
       </c>
       <c r="D74">
-        <v>-0.06750217339739145</v>
+        <v>-0.04565684514613987</v>
       </c>
       <c r="E74">
-        <v>0.08958098878735019</v>
+        <v>0.004318874205945918</v>
       </c>
       <c r="F74">
-        <v>-0.02910928736083293</v>
+        <v>-0.05994407551542701</v>
       </c>
       <c r="G74">
-        <v>-0.003117150172501176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0513366540696234</v>
+      </c>
+      <c r="H74">
+        <v>0.006870881292208949</v>
+      </c>
+      <c r="I74">
+        <v>0.004889164314267233</v>
+      </c>
+      <c r="J74">
+        <v>0.02198198744989307</v>
+      </c>
+      <c r="K74">
+        <v>-0.06830118991338061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.05379072837413858</v>
+        <v>0.05909147579607402</v>
       </c>
       <c r="C75">
-        <v>0.1705982987290851</v>
+        <v>0.1748847064680503</v>
       </c>
       <c r="D75">
-        <v>-0.09369445208783984</v>
+        <v>-0.08500648785425775</v>
       </c>
       <c r="E75">
-        <v>0.2291351112941437</v>
+        <v>-0.041704655678405</v>
       </c>
       <c r="F75">
-        <v>-0.05003360027118497</v>
+        <v>-0.1477416305227733</v>
       </c>
       <c r="G75">
-        <v>0.1009284175354719</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2076311557157699</v>
+      </c>
+      <c r="H75">
+        <v>0.03518409618659586</v>
+      </c>
+      <c r="I75">
+        <v>-0.1230519801478978</v>
+      </c>
+      <c r="J75">
+        <v>-0.06190046836363971</v>
+      </c>
+      <c r="K75">
+        <v>-0.08646041918181646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.03049107644657454</v>
+        <v>0.04112542874490952</v>
       </c>
       <c r="C76">
-        <v>0.1220188849675222</v>
+        <v>0.1279043672245516</v>
       </c>
       <c r="D76">
-        <v>-0.06293010154224801</v>
+        <v>-0.07173847008765415</v>
       </c>
       <c r="E76">
-        <v>0.1046912094792157</v>
+        <v>0.004236252118708843</v>
       </c>
       <c r="F76">
-        <v>-0.03242959959737778</v>
+        <v>-0.09163393312235929</v>
       </c>
       <c r="G76">
-        <v>-0.02261826555659338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07005404658945806</v>
+      </c>
+      <c r="H76">
+        <v>0.01322635703928544</v>
+      </c>
+      <c r="I76">
+        <v>-0.001923857809210765</v>
+      </c>
+      <c r="J76">
+        <v>-0.03399474784586022</v>
+      </c>
+      <c r="K76">
+        <v>-0.1316045026532945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.0619991613795303</v>
+        <v>0.04336488801432619</v>
       </c>
       <c r="C77">
-        <v>0.2776419520300846</v>
+        <v>0.374798051921283</v>
       </c>
       <c r="D77">
-        <v>0.8541731381563343</v>
+        <v>0.91029356542799</v>
       </c>
       <c r="E77">
-        <v>0.3094252562520098</v>
+        <v>-0.03895345415816993</v>
       </c>
       <c r="F77">
-        <v>0.1346687644615492</v>
+        <v>-0.08839758988941955</v>
       </c>
       <c r="G77">
-        <v>-0.06535985629387459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02812537821001165</v>
+      </c>
+      <c r="H77">
+        <v>-0.06017216289145522</v>
+      </c>
+      <c r="I77">
+        <v>-0.00190135423933745</v>
+      </c>
+      <c r="J77">
+        <v>-0.002491038148408562</v>
+      </c>
+      <c r="K77">
+        <v>-0.01540957093485587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03826244266034572</v>
+        <v>0.03313897209742513</v>
       </c>
       <c r="C78">
-        <v>0.1471985142834623</v>
+        <v>0.1132240200205138</v>
       </c>
       <c r="D78">
-        <v>-0.08321175243065423</v>
+        <v>-0.09461504394040336</v>
       </c>
       <c r="E78">
-        <v>-0.07536883213538401</v>
+        <v>0.04251667994162742</v>
       </c>
       <c r="F78">
-        <v>-0.1160356548420238</v>
+        <v>0.01021840496320473</v>
       </c>
       <c r="G78">
-        <v>-0.02432662108985447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.08481092095777662</v>
+      </c>
+      <c r="H78">
+        <v>-0.05021171771952114</v>
+      </c>
+      <c r="I78">
+        <v>0.09706697376030843</v>
+      </c>
+      <c r="J78">
+        <v>0.4120486996915662</v>
+      </c>
+      <c r="K78">
+        <v>-0.005149268709833394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.03057262224169382</v>
+        <v>0.052073507599083</v>
       </c>
       <c r="C79">
-        <v>0.213504304107642</v>
+        <v>0.1551130754082413</v>
       </c>
       <c r="D79">
-        <v>-0.1241647584254787</v>
+        <v>-0.06996554414405501</v>
       </c>
       <c r="E79">
-        <v>0.1978172969672146</v>
+        <v>0.02519105643432101</v>
       </c>
       <c r="F79">
-        <v>-0.1436473105578196</v>
+        <v>-0.1022277493412627</v>
       </c>
       <c r="G79">
-        <v>0.09154232479083922</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.246272214010057</v>
+      </c>
+      <c r="H79">
+        <v>0.007675152434588057</v>
+      </c>
+      <c r="I79">
+        <v>-0.07784397675526139</v>
+      </c>
+      <c r="J79">
+        <v>0.07669080848167904</v>
+      </c>
+      <c r="K79">
+        <v>-0.06338941929979698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01272971127279994</v>
+        <v>0.01947594907059183</v>
       </c>
       <c r="C80">
-        <v>0.05209832211166012</v>
+        <v>0.0545176329992286</v>
       </c>
       <c r="D80">
-        <v>-0.04887383818512181</v>
+        <v>-0.03950804848500818</v>
       </c>
       <c r="E80">
-        <v>0.01875539195802303</v>
+        <v>0.0481241008907537</v>
       </c>
       <c r="F80">
-        <v>-0.03299596877937226</v>
+        <v>0.02745797547146497</v>
       </c>
       <c r="G80">
-        <v>-0.004484668119994911</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04040987563490413</v>
+      </c>
+      <c r="H80">
+        <v>0.03161304736745287</v>
+      </c>
+      <c r="I80">
+        <v>-0.05556991545444755</v>
+      </c>
+      <c r="J80">
+        <v>-0.07933051012003979</v>
+      </c>
+      <c r="K80">
+        <v>-0.02704185463350836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01036069620980619</v>
+        <v>0.0148079313929882</v>
       </c>
       <c r="C81">
-        <v>0.1006266568794399</v>
+        <v>0.1041712911003163</v>
       </c>
       <c r="D81">
-        <v>-0.08251023279556689</v>
+        <v>-0.05403497050554317</v>
       </c>
       <c r="E81">
-        <v>0.1256694096496278</v>
+        <v>0.01434010653076932</v>
       </c>
       <c r="F81">
-        <v>-0.05104481083608454</v>
+        <v>-0.05796802469300854</v>
       </c>
       <c r="G81">
-        <v>0.004917020133472946</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1068032954925311</v>
+      </c>
+      <c r="H81">
+        <v>-0.04087755831541148</v>
+      </c>
+      <c r="I81">
+        <v>-0.05275243735537109</v>
+      </c>
+      <c r="J81">
+        <v>-0.02643580642968312</v>
+      </c>
+      <c r="K81">
+        <v>-0.08848640701238483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03437719152401462</v>
+        <v>0.04574633547019491</v>
       </c>
       <c r="C82">
-        <v>0.1072120195113802</v>
+        <v>0.1108715526708853</v>
       </c>
       <c r="D82">
-        <v>-0.07972334742594087</v>
+        <v>-0.06622935972693826</v>
       </c>
       <c r="E82">
-        <v>0.1185587787496795</v>
+        <v>0.009449204974442014</v>
       </c>
       <c r="F82">
-        <v>-0.01428867318392363</v>
+        <v>-0.08075957562581122</v>
       </c>
       <c r="G82">
-        <v>-0.01019985672142255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08707017066040949</v>
+      </c>
+      <c r="H82">
+        <v>-0.01040334998004983</v>
+      </c>
+      <c r="I82">
+        <v>-0.01967716613721066</v>
+      </c>
+      <c r="J82">
+        <v>-0.01414863519748307</v>
+      </c>
+      <c r="K82">
+        <v>-0.1047097352597239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004946694606508583</v>
+        <v>-0.001488942755927011</v>
       </c>
       <c r="C83">
-        <v>0.03568177244733152</v>
+        <v>-9.347828534408078e-05</v>
       </c>
       <c r="D83">
-        <v>0.1873123922769812</v>
+        <v>0.06229470811665298</v>
       </c>
       <c r="E83">
-        <v>-0.1526948578437512</v>
+        <v>0.9520552206323057</v>
       </c>
       <c r="F83">
-        <v>-0.8541584246759788</v>
+        <v>0.1314239602044871</v>
       </c>
       <c r="G83">
-        <v>-0.3115462596373806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05722241767180286</v>
+      </c>
+      <c r="H83">
+        <v>0.08586816019329402</v>
+      </c>
+      <c r="I83">
+        <v>0.06110439905896269</v>
+      </c>
+      <c r="J83">
+        <v>0.001002940960385713</v>
+      </c>
+      <c r="K83">
+        <v>-0.09202908413287128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-2.063815500065631e-06</v>
+        <v>-0.001267707387012298</v>
       </c>
       <c r="C84">
-        <v>0.05341176279494934</v>
+        <v>0.04534338328430853</v>
       </c>
       <c r="D84">
-        <v>-0.02131603692860158</v>
+        <v>-0.0615409009726386</v>
       </c>
       <c r="E84">
-        <v>-0.1050346832235853</v>
+        <v>-0.03098562873575857</v>
       </c>
       <c r="F84">
-        <v>0.03382027199577408</v>
+        <v>0.09480948615142311</v>
       </c>
       <c r="G84">
-        <v>0.1205276170665292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03803421128343001</v>
+      </c>
+      <c r="H84">
+        <v>-0.07057704748509623</v>
+      </c>
+      <c r="I84">
+        <v>0.1108908037635706</v>
+      </c>
+      <c r="J84">
+        <v>-0.0521193600602447</v>
+      </c>
+      <c r="K84">
+        <v>-0.0792042057173752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02414909131131991</v>
+        <v>0.02796898260400693</v>
       </c>
       <c r="C85">
-        <v>0.1567989886820999</v>
+        <v>0.1253421299507042</v>
       </c>
       <c r="D85">
-        <v>-0.09785177751451773</v>
+        <v>-0.0831644701666298</v>
       </c>
       <c r="E85">
-        <v>0.1796121824283188</v>
+        <v>0.0104766126319004</v>
       </c>
       <c r="F85">
-        <v>-0.08980160500840546</v>
+        <v>-0.1494743459384696</v>
       </c>
       <c r="G85">
-        <v>0.0635561788541118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1862425635196925</v>
+      </c>
+      <c r="H85">
+        <v>0.02853517924797374</v>
+      </c>
+      <c r="I85">
+        <v>-0.08162029701046429</v>
+      </c>
+      <c r="J85">
+        <v>-0.02707424599560579</v>
+      </c>
+      <c r="K85">
+        <v>-0.191652929458082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01849767890500094</v>
+        <v>0.01555482284230314</v>
       </c>
       <c r="C86">
-        <v>0.07047973623540105</v>
+        <v>0.08295423970554486</v>
       </c>
       <c r="D86">
-        <v>0.03602686521363017</v>
+        <v>-0.02430876238842603</v>
       </c>
       <c r="E86">
-        <v>-0.04976526095467706</v>
+        <v>-0.004707192077464883</v>
       </c>
       <c r="F86">
-        <v>0.05231447347847103</v>
+        <v>0.08645509091149334</v>
       </c>
       <c r="G86">
-        <v>0.0005171377178853952</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05948880688396375</v>
+      </c>
+      <c r="H86">
+        <v>-0.01597157632917769</v>
+      </c>
+      <c r="I86">
+        <v>-0.1329259143088726</v>
+      </c>
+      <c r="J86">
+        <v>0.1660726380201732</v>
+      </c>
+      <c r="K86">
+        <v>0.07447389765325195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.04346040935350454</v>
+        <v>0.02381510306641677</v>
       </c>
       <c r="C87">
-        <v>0.1439541115775649</v>
+        <v>0.1158409522953532</v>
       </c>
       <c r="D87">
-        <v>-0.001512297071744937</v>
+        <v>-0.01508798156954715</v>
       </c>
       <c r="E87">
-        <v>-0.1380185950392116</v>
+        <v>-0.01334696763864691</v>
       </c>
       <c r="F87">
-        <v>-0.02314626953770108</v>
+        <v>0.079517530551411</v>
       </c>
       <c r="G87">
-        <v>0.03523613093347473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006581379889836659</v>
+      </c>
+      <c r="H87">
+        <v>-0.0420909465743483</v>
+      </c>
+      <c r="I87">
+        <v>0.1058795269143247</v>
+      </c>
+      <c r="J87">
+        <v>0.06465409210740317</v>
+      </c>
+      <c r="K87">
+        <v>-0.07922751786208405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.004802953794444553</v>
+        <v>0.03574064019712454</v>
       </c>
       <c r="C88">
-        <v>0.04321288537237337</v>
+        <v>0.06694102850470089</v>
       </c>
       <c r="D88">
-        <v>-0.04877153941005421</v>
+        <v>-0.04229676430736912</v>
       </c>
       <c r="E88">
-        <v>0.04658289769207832</v>
+        <v>-0.01226101426080461</v>
       </c>
       <c r="F88">
-        <v>0.03543797150608147</v>
+        <v>-0.02153455933081232</v>
       </c>
       <c r="G88">
-        <v>-0.009584120564314624</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02342826995944058</v>
+      </c>
+      <c r="H88">
+        <v>-0.003161645922410303</v>
+      </c>
+      <c r="I88">
+        <v>-0.02640573403658599</v>
+      </c>
+      <c r="J88">
+        <v>-0.07729349544293233</v>
+      </c>
+      <c r="K88">
+        <v>-0.06326272524366812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3902284126895694</v>
+        <v>0.3924151049794012</v>
       </c>
       <c r="C89">
-        <v>-0.09211439602483608</v>
+        <v>-0.1066872226710524</v>
       </c>
       <c r="D89">
-        <v>-0.1049283009780642</v>
+        <v>0.03082311024788667</v>
       </c>
       <c r="E89">
-        <v>-0.0701383796335366</v>
+        <v>-0.03377554218565301</v>
       </c>
       <c r="F89">
-        <v>-0.05156494260005801</v>
+        <v>0.05258239935897831</v>
       </c>
       <c r="G89">
-        <v>0.07340572313377167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01927201412498294</v>
+      </c>
+      <c r="H89">
+        <v>0.01323434437298799</v>
+      </c>
+      <c r="I89">
+        <v>0.7437554879488918</v>
+      </c>
+      <c r="J89">
+        <v>-0.04966896743854197</v>
+      </c>
+      <c r="K89">
+        <v>0.05237939658855498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3037044666027808</v>
+        <v>0.3144495427347418</v>
       </c>
       <c r="C90">
-        <v>-0.02528084869122721</v>
+        <v>-0.06457073746163758</v>
       </c>
       <c r="D90">
-        <v>0.006199154856919628</v>
+        <v>0.01108349129163193</v>
       </c>
       <c r="E90">
-        <v>-0.03818850644795818</v>
+        <v>0.01754730646316995</v>
       </c>
       <c r="F90">
-        <v>-0.06674836060975327</v>
+        <v>0.02993810679194306</v>
       </c>
       <c r="G90">
-        <v>-0.02488867495227064</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02529342052731769</v>
+      </c>
+      <c r="H90">
+        <v>-0.01478910549437836</v>
+      </c>
+      <c r="I90">
+        <v>-0.07158423382640407</v>
+      </c>
+      <c r="J90">
+        <v>0.02664784618603567</v>
+      </c>
+      <c r="K90">
+        <v>-0.005175288386009442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02893738907578531</v>
+        <v>0.05073188541477069</v>
       </c>
       <c r="C91">
-        <v>0.1079666969812745</v>
+        <v>0.09742556107586259</v>
       </c>
       <c r="D91">
-        <v>-0.05242975799476925</v>
+        <v>-0.04572112983052482</v>
       </c>
       <c r="E91">
-        <v>0.1049039421206142</v>
+        <v>0.03766406714799486</v>
       </c>
       <c r="F91">
-        <v>-0.05967558420541492</v>
+        <v>-0.06681799740578</v>
       </c>
       <c r="G91">
-        <v>0.02353375554700242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08678388407047956</v>
+      </c>
+      <c r="H91">
+        <v>0.02491683167968697</v>
+      </c>
+      <c r="I91">
+        <v>-0.007224739824916375</v>
+      </c>
+      <c r="J91">
+        <v>-0.04650249323252883</v>
+      </c>
+      <c r="K91">
+        <v>-0.02787091768981123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3733165364423545</v>
+        <v>0.3549851292358459</v>
       </c>
       <c r="C92">
-        <v>-0.1000632358943158</v>
+        <v>-0.1202910339732167</v>
       </c>
       <c r="D92">
-        <v>0.02145313369060272</v>
+        <v>0.05057171569661626</v>
       </c>
       <c r="E92">
-        <v>-0.00913543970784654</v>
+        <v>-0.04992881928682137</v>
       </c>
       <c r="F92">
-        <v>0.0799409311605937</v>
+        <v>0.05306426708967124</v>
       </c>
       <c r="G92">
-        <v>0.07796136135530363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02172420578847892</v>
+      </c>
+      <c r="H92">
+        <v>-0.0815394552362011</v>
+      </c>
+      <c r="I92">
+        <v>-0.1568056535119847</v>
+      </c>
+      <c r="J92">
+        <v>0.01109957979230383</v>
+      </c>
+      <c r="K92">
+        <v>0.04753643836748634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3011512303800508</v>
+        <v>0.3107600529915375</v>
       </c>
       <c r="C93">
-        <v>-0.08209828674526798</v>
+        <v>-0.1104613194046894</v>
       </c>
       <c r="D93">
-        <v>-0.02172728494974752</v>
+        <v>0.004499939383331029</v>
       </c>
       <c r="E93">
-        <v>-0.03910637994766083</v>
+        <v>-0.001372842758332991</v>
       </c>
       <c r="F93">
-        <v>-0.0301387885553209</v>
+        <v>0.03518983532330387</v>
       </c>
       <c r="G93">
-        <v>0.04580994061475378</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04995286426417613</v>
+      </c>
+      <c r="H93">
+        <v>-0.03713827921473303</v>
+      </c>
+      <c r="I93">
+        <v>-0.1031276736494929</v>
+      </c>
+      <c r="J93">
+        <v>0.009161127330291129</v>
+      </c>
+      <c r="K93">
+        <v>-0.03585985895778201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.05626424236770265</v>
+        <v>0.07540717694290951</v>
       </c>
       <c r="C94">
-        <v>0.2350468671479889</v>
+        <v>0.182529130807757</v>
       </c>
       <c r="D94">
-        <v>-0.1690770426793977</v>
+        <v>-0.1077880977177425</v>
       </c>
       <c r="E94">
-        <v>0.363164007936913</v>
+        <v>0.01908673325948485</v>
       </c>
       <c r="F94">
-        <v>-0.2067127301042869</v>
+        <v>-0.2116990047636826</v>
       </c>
       <c r="G94">
-        <v>0.3875281560679059</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5055927004408041</v>
+      </c>
+      <c r="H94">
+        <v>0.196789062544312</v>
+      </c>
+      <c r="I94">
+        <v>0.1402865174446856</v>
+      </c>
+      <c r="J94">
+        <v>-0.238751041674217</v>
+      </c>
+      <c r="K94">
+        <v>0.4863320352641154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.04378203740696764</v>
+        <v>0.0377969367665362</v>
       </c>
       <c r="C95">
-        <v>0.0807480454832215</v>
+        <v>0.1231374069691554</v>
       </c>
       <c r="D95">
-        <v>-0.02164984869978324</v>
+        <v>-0.05439923025852061</v>
       </c>
       <c r="E95">
-        <v>0.005597362906580828</v>
+        <v>-0.03273264565727696</v>
       </c>
       <c r="F95">
-        <v>0.02920206715003213</v>
+        <v>-0.06306960634583302</v>
       </c>
       <c r="G95">
-        <v>-0.1661461968764564</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.09086271631242157</v>
+      </c>
+      <c r="H95">
+        <v>-0.06952528830051109</v>
+      </c>
+      <c r="I95">
+        <v>0.1375496925114611</v>
+      </c>
+      <c r="J95">
+        <v>-0.2405385856065097</v>
+      </c>
+      <c r="K95">
+        <v>-0.3287498243988287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0002955553020748738</v>
+        <v>0.01088256601994683</v>
       </c>
       <c r="C97">
-        <v>9.619820917876357e-05</v>
+        <v>0.01352465237661363</v>
       </c>
       <c r="D97">
-        <v>0.0001600648128153587</v>
+        <v>0.01095084698613353</v>
       </c>
       <c r="E97">
-        <v>0.0003390729663867469</v>
+        <v>-0.03473532566263142</v>
       </c>
       <c r="F97">
-        <v>0.0006740758473009388</v>
+        <v>0.008947154852968871</v>
       </c>
       <c r="G97">
-        <v>0.0005342849869074188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03098616132051678</v>
+      </c>
+      <c r="H97">
+        <v>-0.03432005464170634</v>
+      </c>
+      <c r="I97">
+        <v>0.02567095296701019</v>
+      </c>
+      <c r="J97">
+        <v>-0.01075157000525156</v>
+      </c>
+      <c r="K97">
+        <v>0.06559819856901758</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09670921666741356</v>
+        <v>0.1303065228598352</v>
       </c>
       <c r="C98">
-        <v>0.136372228914679</v>
+        <v>0.1576318690056802</v>
       </c>
       <c r="D98">
-        <v>-0.08437403874349197</v>
+        <v>-0.08017465853320745</v>
       </c>
       <c r="E98">
-        <v>0.005416239143905065</v>
+        <v>0.02982547464353997</v>
       </c>
       <c r="F98">
-        <v>0.1196767989653924</v>
+        <v>-0.1785944605918953</v>
       </c>
       <c r="G98">
-        <v>-0.2842516600707509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3528768238612346</v>
+      </c>
+      <c r="H98">
+        <v>0.3341535546135764</v>
+      </c>
+      <c r="I98">
+        <v>-0.1002081174174686</v>
+      </c>
+      <c r="J98">
+        <v>0.1059084278564286</v>
+      </c>
+      <c r="K98">
+        <v>0.1879572135409672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01123165704427575</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02429946465501984</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009335228903125992</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.00365183919847223</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.04165243650376406</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.02934761235042001</v>
+      </c>
+      <c r="H99">
+        <v>-0.1025706989037496</v>
+      </c>
+      <c r="I99">
+        <v>0.005018868458825858</v>
+      </c>
+      <c r="J99">
+        <v>-0.007527672866309606</v>
+      </c>
+      <c r="K99">
+        <v>0.4149048235417551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.014342111154926</v>
+        <v>0.01369002034225203</v>
       </c>
       <c r="C101">
-        <v>0.06359407341650175</v>
+        <v>0.07722029169455</v>
       </c>
       <c r="D101">
-        <v>-0.03073880041339575</v>
+        <v>-0.04998828675057192</v>
       </c>
       <c r="E101">
-        <v>-0.07305401528110202</v>
+        <v>0.04912660371561512</v>
       </c>
       <c r="F101">
-        <v>0.02514159608296236</v>
+        <v>0.0244529948052942</v>
       </c>
       <c r="G101">
-        <v>-0.09003712129941396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1303922954384207</v>
+      </c>
+      <c r="H101">
+        <v>-0.2882226498066759</v>
+      </c>
+      <c r="I101">
+        <v>0.03431416569529485</v>
+      </c>
+      <c r="J101">
+        <v>-0.1635189679804116</v>
+      </c>
+      <c r="K101">
+        <v>0.2046027538223264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.009423444017219063</v>
+        <v>0.003703069364256911</v>
       </c>
       <c r="C102">
-        <v>0.0516852823754945</v>
+        <v>0.02122929476380159</v>
       </c>
       <c r="D102">
-        <v>-0.01988255104835198</v>
+        <v>-0.006209694174293946</v>
       </c>
       <c r="E102">
-        <v>0.04260565508322051</v>
+        <v>0.009265665487240502</v>
       </c>
       <c r="F102">
-        <v>-0.0270275703138866</v>
+        <v>-0.01416292065227261</v>
       </c>
       <c r="G102">
-        <v>-0.002161040774741661</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02338352766588985</v>
+      </c>
+      <c r="H102">
+        <v>-0.004199718608711939</v>
+      </c>
+      <c r="I102">
+        <v>0.01579649392467394</v>
+      </c>
+      <c r="J102">
+        <v>0.001625578336390635</v>
+      </c>
+      <c r="K102">
+        <v>0.02523481422788365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
